--- a/Alteryx Web.xlsx
+++ b/Alteryx Web.xlsx
@@ -3100,47 +3100,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NSW</t>
+          <t>Last_updated</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>QLD</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>TAS</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ACT</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Last_updated</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
@@ -3152,1817 +3122,7521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>8008</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8371</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10165</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10221</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14856</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16685</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20496</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15 March 2020</t>
+          <t>08 March 2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22567</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26964</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11700</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8371</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30244</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14200</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35800</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15200</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39089</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17180</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>27064</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40651</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19337</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28386</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>807</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2218</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>46892</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20500</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29867</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>TAS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>52663</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22900</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>31309</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2414</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23 March 2020</t>
+          <t>09 March 2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>56941</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23700</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>32394</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2608</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>ACT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>61848</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2819</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10165</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>68177</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25500</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>38860</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>19269</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1272</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3008</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>74006</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26900</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20676</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>11519</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3272</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>77689</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31000</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>42965</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23500</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>12091</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>86524</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>24737</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>12971</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>4059</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>93099</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>39000</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>44999</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>25682</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>13648</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>TAS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>96446</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>42000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26202</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>14188</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31 March 2020</t>
+          <t>10 March 2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>99951</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>49382</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>27344</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>14704</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>ACT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>105543</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>47000</t>
+          <t>NSW</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50853</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>28828</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15522</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2131</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4858</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>10221</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>110537</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>49000</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>51785</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>29876</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>16190</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2218</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2273</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>5018</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>114455</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>51000</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>54441</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>30922</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>16866</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>5222</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>117633</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>54000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>56000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>32037</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17251</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2642</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5328</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>121433</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>56000</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>57795</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>32863</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>18197</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2845</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2753</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5258</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>124038</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>57000</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>58490</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>33303</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>18726</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2972</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2805</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>5329</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>TAS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>126146</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>58000</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>61834</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>33831</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>19201</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>3192</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2999</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>5497</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08 April 2020</t>
+          <t>11 March 2020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>129091</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>63552</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>34593</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>20096</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>3295</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3062</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>5679</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>ACT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>132997</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>NSW</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>66766</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>35286</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20712</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>3397</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>3174</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>5802</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>14856</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>137441</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>62000</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>69194</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>35716</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>21144</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3243</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>6017</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>67000</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>71499</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>36159</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>22105</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>6103</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>141777</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>67000</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>72313</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>36449</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>23118</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3770</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>3355</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>6159</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>144380</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>73170</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>36704</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>23935</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3381</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>6191</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>145809</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>71000</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>74013</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>37039</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>24397</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>4502</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3442</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>6291</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>TAS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>147114</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>72000</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>75480</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>37545</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>24613</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>3489</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>6490</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>NT</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16 April 2020</t>
+          <t>12 March 2020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>150314</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>77727</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>38389</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>25623</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>4810</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>3521</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>6619</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>ACT</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>17 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>155302</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>NSW</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>80227</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>39318</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>26225</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>5098</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>3606</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>6754</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>16685</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>160454</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>79000</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>82763</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>41261</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>27175</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>5376</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>6856</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>VIC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>165137</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>82000</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>84735</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>43310</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>28888</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>3713</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>6893</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>QLD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>168626</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>86000</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>85870</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>44278</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>29469</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>6697</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>3731</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>7063</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>SA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>21 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>171128</t>
+          <t>22 April 2020</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>88000</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>87470</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>45495</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>30112</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>6701</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>3810</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>7126</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22 April 2020</t>
+          <t>13 March 2020</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13 March 2020</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13 March 2020</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20496</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14 March 2020</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>22567</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15 March 2020</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>26964</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11700</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>16 March 2020</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>30244</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17 March 2020</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>35800</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15200</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>39089</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>17180</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>27064</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>19 March 2020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>40651</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>19337</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>28386</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20 March 2020</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>46892</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>29867</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>21 March 2020</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>52663</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>31309</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>22 March 2020</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>56941</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>23700</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>32394</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>23 March 2020</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>61848</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>24 March 2020</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2819</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>68177</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>38860</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>19269</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>25 March 2020</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>74006</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>26900</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>20676</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>11519</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>26 March 2020</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3272</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>77689</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>42965</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>27 March 2020</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>86524</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>24737</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>12971</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>93099</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>39000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>44999</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>25682</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>13648</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>96446</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>42000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>26202</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14188</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>99951</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>49382</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>27344</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>14704</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>105543</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>47000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>50853</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>28828</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>15522</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>4858</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>110537</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>49000</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>51785</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>29876</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>16190</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>5018</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>114455</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>54441</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>30922</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>16866</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>5222</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>117633</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>54000</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>56000</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>32037</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>17251</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>5328</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>121433</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>56000</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>57795</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>32863</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>18197</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2845</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2753</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>5258</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>124038</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>57000</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>58490</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>33303</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>18726</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2805</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>5329</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>126146</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>58000</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>61834</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>33831</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>19201</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2999</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>5497</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>129091</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>63552</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>34593</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>20096</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>5679</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>132997</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>62000</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>66766</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>35286</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>20712</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>5802</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>137441</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>62000</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>69194</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>35716</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>21144</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>3243</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>6017</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>138090</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>67000</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>71499</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>36159</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>22105</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>6103</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>141777</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>67000</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>72313</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>36449</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>23118</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>3770</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>6159</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>144380</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>73170</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>36704</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>23935</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>3381</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>145809</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>71000</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>74013</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>37039</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>24397</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>4502</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>6291</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>147114</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>72000</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>75480</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>37545</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>24613</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>3489</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>150314</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>77727</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>38389</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>25623</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>6619</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>155302</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>80227</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>39318</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>26225</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>160454</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>79000</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>82763</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>41261</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>27175</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>5376</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>6856</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>165137</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>82000</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>84735</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>43310</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>28888</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>6320</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>168626</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>86000</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>85870</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>44278</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>29469</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>6697</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>7063</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>171128</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>88000</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>87470</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>45495</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>30112</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>6701</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>7126</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
           <t>175419</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
         <is>
           <t>90000</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
         <is>
           <t>90168</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
         <is>
           <t>47238</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
         <is>
           <t>31140</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
         <is>
           <t>7248</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
         <is>
           <t>3972</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
         <is>
           <t>7256</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>22 April 2020</t>
         </is>
       </c>
     </row>

--- a/Alteryx Web.xlsx
+++ b/Alteryx Web.xlsx
@@ -3130,10 +3130,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8008</t>
-        </is>
+      <c r="D2" s="1">
+        <v>8008</v>
       </c>
     </row>
     <row r="3">
@@ -3271,10 +3269,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8371</t>
-        </is>
+      <c r="D10" s="1">
+        <v>8371</v>
       </c>
     </row>
     <row r="11">
@@ -3412,10 +3408,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10165</t>
-        </is>
+      <c r="D18" s="1">
+        <v>10165</v>
       </c>
     </row>
     <row r="19">
@@ -3553,10 +3547,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>10221</t>
-        </is>
+      <c r="D26" s="1">
+        <v>10221</v>
       </c>
     </row>
     <row r="27">
@@ -3694,10 +3686,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>14856</t>
-        </is>
+      <c r="D34" s="1">
+        <v>14856</v>
       </c>
     </row>
     <row r="35">
@@ -3835,10 +3825,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>16685</t>
-        </is>
+      <c r="D42" s="1">
+        <v>16685</v>
       </c>
     </row>
     <row r="43">
@@ -3976,10 +3964,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>20496</t>
-        </is>
+      <c r="D50" s="1">
+        <v>20496</v>
       </c>
     </row>
     <row r="51">
@@ -4117,10 +4103,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>22567</t>
-        </is>
+      <c r="D58" s="1">
+        <v>22567</v>
       </c>
     </row>
     <row r="59">
@@ -4258,10 +4242,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>26964</t>
-        </is>
+      <c r="D66" s="1">
+        <v>26964</v>
       </c>
     </row>
     <row r="67">
@@ -4280,10 +4262,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>11700</t>
-        </is>
+      <c r="D67" s="1">
+        <v>11700</v>
       </c>
     </row>
     <row r="68">
@@ -4404,10 +4384,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>30244</t>
-        </is>
+      <c r="D74" s="1">
+        <v>30244</v>
       </c>
     </row>
     <row r="75">
@@ -4426,10 +4404,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>14200</t>
-        </is>
+      <c r="D75" s="1">
+        <v>14200</v>
       </c>
     </row>
     <row r="76">
@@ -4550,10 +4526,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>35800</t>
-        </is>
+      <c r="D82" s="1">
+        <v>35800</v>
       </c>
     </row>
     <row r="83">
@@ -4572,10 +4546,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>15200</t>
-        </is>
+      <c r="D83" s="1">
+        <v>15200</v>
       </c>
     </row>
     <row r="84">
@@ -4696,10 +4668,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>39089</t>
-        </is>
+      <c r="D90" s="1">
+        <v>39089</v>
       </c>
     </row>
     <row r="91">
@@ -4718,10 +4688,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>17180</t>
-        </is>
+      <c r="D91" s="1">
+        <v>17180</v>
       </c>
     </row>
     <row r="92">
@@ -4740,10 +4708,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>27064</t>
-        </is>
+      <c r="D92" s="1">
+        <v>27064</v>
       </c>
     </row>
     <row r="93">
@@ -4847,10 +4813,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>40651</t>
-        </is>
+      <c r="D98" s="1">
+        <v>40651</v>
       </c>
     </row>
     <row r="99">
@@ -4869,10 +4833,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>19337</t>
-        </is>
+      <c r="D99" s="1">
+        <v>19337</v>
       </c>
     </row>
     <row r="100">
@@ -4891,10 +4853,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>28386</t>
-        </is>
+      <c r="D100" s="1">
+        <v>28386</v>
       </c>
     </row>
     <row r="101">
@@ -4947,10 +4907,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>807</t>
-        </is>
+      <c r="D103" s="1">
+        <v>807</v>
       </c>
     </row>
     <row r="104">
@@ -4986,10 +4944,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2218</t>
-        </is>
+      <c r="D105" s="1">
+        <v>2218</v>
       </c>
     </row>
     <row r="106">
@@ -5008,10 +4964,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>46892</t>
-        </is>
+      <c r="D106" s="1">
+        <v>46892</v>
       </c>
     </row>
     <row r="107">
@@ -5030,10 +4984,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
+      <c r="D107" s="1">
+        <v>20500</v>
       </c>
     </row>
     <row r="108">
@@ -5052,10 +5004,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>29867</t>
-        </is>
+      <c r="D108" s="1">
+        <v>29867</v>
       </c>
     </row>
     <row r="109">
@@ -5159,10 +5109,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>52663</t>
-        </is>
+      <c r="D114" s="1">
+        <v>52663</v>
       </c>
     </row>
     <row r="115">
@@ -5181,10 +5129,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>22900</t>
-        </is>
+      <c r="D115" s="1">
+        <v>22900</v>
       </c>
     </row>
     <row r="116">
@@ -5203,10 +5149,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>31309</t>
-        </is>
+      <c r="D116" s="1">
+        <v>31309</v>
       </c>
     </row>
     <row r="117">
@@ -5293,10 +5237,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2414</t>
-        </is>
+      <c r="D121" s="1">
+        <v>2414</v>
       </c>
     </row>
     <row r="122">
@@ -5315,10 +5257,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>56941</t>
-        </is>
+      <c r="D122" s="1">
+        <v>56941</v>
       </c>
     </row>
     <row r="123">
@@ -5337,10 +5277,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>23700</t>
-        </is>
+      <c r="D123" s="1">
+        <v>23700</v>
       </c>
     </row>
     <row r="124">
@@ -5359,10 +5297,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>32394</t>
-        </is>
+      <c r="D124" s="1">
+        <v>32394</v>
       </c>
     </row>
     <row r="125">
@@ -5449,10 +5385,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2608</t>
-        </is>
+      <c r="D129" s="1">
+        <v>2608</v>
       </c>
     </row>
     <row r="130">
@@ -5471,10 +5405,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>61848</t>
-        </is>
+      <c r="D130" s="1">
+        <v>61848</v>
       </c>
     </row>
     <row r="131">
@@ -5493,10 +5425,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
+      <c r="D131" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="132">
@@ -5566,10 +5496,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
+      <c r="D135" s="1">
+        <v>1139</v>
       </c>
     </row>
     <row r="136">
@@ -5605,10 +5533,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2819</t>
-        </is>
+      <c r="D137" s="1">
+        <v>2819</v>
       </c>
     </row>
     <row r="138">
@@ -5627,10 +5553,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>68177</t>
-        </is>
+      <c r="D138" s="1">
+        <v>68177</v>
       </c>
     </row>
     <row r="139">
@@ -5649,10 +5573,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>25500</t>
-        </is>
+      <c r="D139" s="1">
+        <v>25500</v>
       </c>
     </row>
     <row r="140">
@@ -5671,10 +5593,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>38860</t>
-        </is>
+      <c r="D140" s="1">
+        <v>38860</v>
       </c>
     </row>
     <row r="141">
@@ -5693,10 +5613,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>19269</t>
-        </is>
+      <c r="D141" s="1">
+        <v>19269</v>
       </c>
     </row>
     <row r="142">
@@ -5732,10 +5650,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>1272</t>
-        </is>
+      <c r="D143" s="1">
+        <v>1272</v>
       </c>
     </row>
     <row r="144">
@@ -5771,10 +5687,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>3008</t>
-        </is>
+      <c r="D145" s="1">
+        <v>3008</v>
       </c>
     </row>
     <row r="146">
@@ -5793,10 +5707,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>74006</t>
-        </is>
+      <c r="D146" s="1">
+        <v>74006</v>
       </c>
     </row>
     <row r="147">
@@ -5815,10 +5727,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>26900</t>
-        </is>
+      <c r="D147" s="1">
+        <v>26900</v>
       </c>
     </row>
     <row r="148">
@@ -5854,10 +5764,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>20676</t>
-        </is>
+      <c r="D149" s="1">
+        <v>20676</v>
       </c>
     </row>
     <row r="150">
@@ -5876,10 +5784,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>11519</t>
-        </is>
+      <c r="D150" s="1">
+        <v>11519</v>
       </c>
     </row>
     <row r="151">
@@ -5932,10 +5838,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>3272</t>
-        </is>
+      <c r="D153" s="1">
+        <v>3272</v>
       </c>
     </row>
     <row r="154">
@@ -5954,10 +5858,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>77689</t>
-        </is>
+      <c r="D154" s="1">
+        <v>77689</v>
       </c>
     </row>
     <row r="155">
@@ -5976,10 +5878,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>31000</t>
-        </is>
+      <c r="D155" s="1">
+        <v>31000</v>
       </c>
     </row>
     <row r="156">
@@ -5998,10 +5898,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>42965</t>
-        </is>
+      <c r="D156" s="1">
+        <v>42965</v>
       </c>
     </row>
     <row r="157">
@@ -6020,10 +5918,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>23500</t>
-        </is>
+      <c r="D157" s="1">
+        <v>23500</v>
       </c>
     </row>
     <row r="158">
@@ -6042,10 +5938,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>12091</t>
-        </is>
+      <c r="D158" s="1">
+        <v>12091</v>
       </c>
     </row>
     <row r="159">
@@ -6064,10 +5958,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
+      <c r="D159" s="1">
+        <v>1779</v>
       </c>
     </row>
     <row r="160">
@@ -6103,10 +5995,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>3760</t>
-        </is>
+      <c r="D161" s="1">
+        <v>3760</v>
       </c>
     </row>
     <row r="162">
@@ -6125,10 +6015,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>86524</t>
-        </is>
+      <c r="D162" s="1">
+        <v>86524</v>
       </c>
     </row>
     <row r="163">
@@ -6147,10 +6035,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
+      <c r="D163" s="1">
+        <v>35000</v>
       </c>
     </row>
     <row r="164">
@@ -6186,10 +6072,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>24737</t>
-        </is>
+      <c r="D165" s="1">
+        <v>24737</v>
       </c>
     </row>
     <row r="166">
@@ -6208,10 +6092,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>12971</t>
-        </is>
+      <c r="D166" s="1">
+        <v>12971</v>
       </c>
     </row>
     <row r="167">
@@ -6230,10 +6112,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
+      <c r="D167" s="1">
+        <v>1779</v>
       </c>
     </row>
     <row r="168">
@@ -6269,10 +6149,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>4059</t>
-        </is>
+      <c r="D169" s="1">
+        <v>4059</v>
       </c>
     </row>
     <row r="170">
@@ -6291,10 +6169,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>93099</t>
-        </is>
+      <c r="D170" s="1">
+        <v>93099</v>
       </c>
     </row>
     <row r="171">
@@ -6313,10 +6189,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>39000</t>
-        </is>
+      <c r="D171" s="1">
+        <v>39000</v>
       </c>
     </row>
     <row r="172">
@@ -6335,10 +6209,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>44999</t>
-        </is>
+      <c r="D172" s="1">
+        <v>44999</v>
       </c>
     </row>
     <row r="173">
@@ -6357,10 +6229,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>25682</t>
-        </is>
+      <c r="D173" s="1">
+        <v>25682</v>
       </c>
     </row>
     <row r="174">
@@ -6379,10 +6249,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>13648</t>
-        </is>
+      <c r="D174" s="1">
+        <v>13648</v>
       </c>
     </row>
     <row r="175">
@@ -6418,10 +6286,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="D176" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="177">
@@ -6440,10 +6306,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
+      <c r="D177" s="1">
+        <v>4307</v>
       </c>
     </row>
     <row r="178">
@@ -6462,10 +6326,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>96446</t>
-        </is>
+      <c r="D178" s="1">
+        <v>96446</v>
       </c>
     </row>
     <row r="179">
@@ -6484,10 +6346,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>42000</t>
-        </is>
+      <c r="D179" s="1">
+        <v>42000</v>
       </c>
     </row>
     <row r="180">
@@ -6523,10 +6383,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>26202</t>
-        </is>
+      <c r="D181" s="1">
+        <v>26202</v>
       </c>
     </row>
     <row r="182">
@@ -6545,10 +6403,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>14188</t>
-        </is>
+      <c r="D182" s="1">
+        <v>14188</v>
       </c>
     </row>
     <row r="183">
@@ -6584,10 +6440,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="D184" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="185">
@@ -6623,10 +6477,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>99951</t>
-        </is>
+      <c r="D186" s="1">
+        <v>99951</v>
       </c>
     </row>
     <row r="187">
@@ -6645,10 +6497,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>45000</t>
-        </is>
+      <c r="D187" s="1">
+        <v>45000</v>
       </c>
     </row>
     <row r="188">
@@ -6667,10 +6517,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>49382</t>
-        </is>
+      <c r="D188" s="1">
+        <v>49382</v>
       </c>
     </row>
     <row r="189">
@@ -6689,10 +6537,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>27344</t>
-        </is>
+      <c r="D189" s="1">
+        <v>27344</v>
       </c>
     </row>
     <row r="190">
@@ -6711,10 +6557,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>14704</t>
-        </is>
+      <c r="D190" s="1">
+        <v>14704</v>
       </c>
     </row>
     <row r="191">
@@ -6750,10 +6594,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
+      <c r="D192" s="1">
+        <v>2100</v>
       </c>
     </row>
     <row r="193">
@@ -6772,10 +6614,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
+      <c r="D193" s="1">
+        <v>4443</v>
       </c>
     </row>
     <row r="194">
@@ -6794,10 +6634,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>105543</t>
-        </is>
+      <c r="D194" s="1">
+        <v>105543</v>
       </c>
     </row>
     <row r="195">
@@ -6816,10 +6654,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>47000</t>
-        </is>
+      <c r="D195" s="1">
+        <v>47000</v>
       </c>
     </row>
     <row r="196">
@@ -6838,10 +6674,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>50853</t>
-        </is>
+      <c r="D196" s="1">
+        <v>50853</v>
       </c>
     </row>
     <row r="197">
@@ -6860,10 +6694,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>28828</t>
-        </is>
+      <c r="D197" s="1">
+        <v>28828</v>
       </c>
     </row>
     <row r="198">
@@ -6882,10 +6714,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>15522</t>
-        </is>
+      <c r="D198" s="1">
+        <v>15522</v>
       </c>
     </row>
     <row r="199">
@@ -6904,11 +6734,6 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6926,10 +6751,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2131</t>
-        </is>
+      <c r="D200" s="1">
+        <v>2131</v>
       </c>
     </row>
     <row r="201">
@@ -6948,10 +6771,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>4858</t>
-        </is>
+      <c r="D201" s="1">
+        <v>4858</v>
       </c>
     </row>
     <row r="202">
@@ -6970,10 +6791,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>110537</t>
-        </is>
+      <c r="D202" s="1">
+        <v>110537</v>
       </c>
     </row>
     <row r="203">
@@ -6992,10 +6811,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>49000</t>
-        </is>
+      <c r="D203" s="1">
+        <v>49000</v>
       </c>
     </row>
     <row r="204">
@@ -7014,10 +6831,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>51785</t>
-        </is>
+      <c r="D204" s="1">
+        <v>51785</v>
       </c>
     </row>
     <row r="205">
@@ -7036,10 +6851,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>29876</t>
-        </is>
+      <c r="D205" s="1">
+        <v>29876</v>
       </c>
     </row>
     <row r="206">
@@ -7058,10 +6871,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>16190</t>
-        </is>
+      <c r="D206" s="1">
+        <v>16190</v>
       </c>
     </row>
     <row r="207">
@@ -7080,10 +6891,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>2218</t>
-        </is>
+      <c r="D207" s="1">
+        <v>2218</v>
       </c>
     </row>
     <row r="208">
@@ -7102,10 +6911,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>2273</t>
-        </is>
+      <c r="D208" s="1">
+        <v>2273</v>
       </c>
     </row>
     <row r="209">
@@ -7124,10 +6931,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>5018</t>
-        </is>
+      <c r="D209" s="1">
+        <v>5018</v>
       </c>
     </row>
     <row r="210">
@@ -7146,10 +6951,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>114455</t>
-        </is>
+      <c r="D210" s="1">
+        <v>114455</v>
       </c>
     </row>
     <row r="211">
@@ -7168,10 +6971,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>51000</t>
-        </is>
+      <c r="D211" s="1">
+        <v>51000</v>
       </c>
     </row>
     <row r="212">
@@ -7190,10 +6991,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>54441</t>
-        </is>
+      <c r="D212" s="1">
+        <v>54441</v>
       </c>
     </row>
     <row r="213">
@@ -7212,10 +7011,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>30922</t>
-        </is>
+      <c r="D213" s="1">
+        <v>30922</v>
       </c>
     </row>
     <row r="214">
@@ -7234,10 +7031,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>16866</t>
-        </is>
+      <c r="D214" s="1">
+        <v>16866</v>
       </c>
     </row>
     <row r="215">
@@ -7273,10 +7068,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
+      <c r="D216" s="1">
+        <v>2466</v>
       </c>
     </row>
     <row r="217">
@@ -7295,10 +7088,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>5222</t>
-        </is>
+      <c r="D217" s="1">
+        <v>5222</v>
       </c>
     </row>
     <row r="218">
@@ -7317,10 +7108,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>117633</t>
-        </is>
+      <c r="D218" s="1">
+        <v>117633</v>
       </c>
     </row>
     <row r="219">
@@ -7339,10 +7128,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>54000</t>
-        </is>
+      <c r="D219" s="1">
+        <v>54000</v>
       </c>
     </row>
     <row r="220">
@@ -7361,10 +7148,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>56000</t>
-        </is>
+      <c r="D220" s="1">
+        <v>56000</v>
       </c>
     </row>
     <row r="221">
@@ -7383,10 +7168,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>32037</t>
-        </is>
+      <c r="D221" s="1">
+        <v>32037</v>
       </c>
     </row>
     <row r="222">
@@ -7405,10 +7188,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>17251</t>
-        </is>
+      <c r="D222" s="1">
+        <v>17251</v>
       </c>
     </row>
     <row r="223">
@@ -7444,10 +7225,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2642</t>
-        </is>
+      <c r="D224" s="1">
+        <v>2642</v>
       </c>
     </row>
     <row r="225">
@@ -7466,10 +7245,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>5328</t>
-        </is>
+      <c r="D225" s="1">
+        <v>5328</v>
       </c>
     </row>
     <row r="226">
@@ -7488,10 +7265,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>121433</t>
-        </is>
+      <c r="D226" s="1">
+        <v>121433</v>
       </c>
     </row>
     <row r="227">
@@ -7510,10 +7285,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>56000</t>
-        </is>
+      <c r="D227" s="1">
+        <v>56000</v>
       </c>
     </row>
     <row r="228">
@@ -7532,10 +7305,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>57795</t>
-        </is>
+      <c r="D228" s="1">
+        <v>57795</v>
       </c>
     </row>
     <row r="229">
@@ -7554,10 +7325,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>32863</t>
-        </is>
+      <c r="D229" s="1">
+        <v>32863</v>
       </c>
     </row>
     <row r="230">
@@ -7576,10 +7345,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>18197</t>
-        </is>
+      <c r="D230" s="1">
+        <v>18197</v>
       </c>
     </row>
     <row r="231">
@@ -7598,10 +7365,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>2845</t>
-        </is>
+      <c r="D231" s="1">
+        <v>2845</v>
       </c>
     </row>
     <row r="232">
@@ -7620,10 +7385,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2753</t>
-        </is>
+      <c r="D232" s="1">
+        <v>2753</v>
       </c>
     </row>
     <row r="233">
@@ -7642,10 +7405,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>5258</t>
-        </is>
+      <c r="D233" s="1">
+        <v>5258</v>
       </c>
     </row>
     <row r="234">
@@ -7664,10 +7425,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>124038</t>
-        </is>
+      <c r="D234" s="1">
+        <v>124038</v>
       </c>
     </row>
     <row r="235">
@@ -7686,10 +7445,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>57000</t>
-        </is>
+      <c r="D235" s="1">
+        <v>57000</v>
       </c>
     </row>
     <row r="236">
@@ -7708,10 +7465,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>58490</t>
-        </is>
+      <c r="D236" s="1">
+        <v>58490</v>
       </c>
     </row>
     <row r="237">
@@ -7730,10 +7485,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>33303</t>
-        </is>
+      <c r="D237" s="1">
+        <v>33303</v>
       </c>
     </row>
     <row r="238">
@@ -7752,10 +7505,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>18726</t>
-        </is>
+      <c r="D238" s="1">
+        <v>18726</v>
       </c>
     </row>
     <row r="239">
@@ -7774,10 +7525,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>2972</t>
-        </is>
+      <c r="D239" s="1">
+        <v>2972</v>
       </c>
     </row>
     <row r="240">
@@ -7796,10 +7545,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>2805</t>
-        </is>
+      <c r="D240" s="1">
+        <v>2805</v>
       </c>
     </row>
     <row r="241">
@@ -7818,10 +7565,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>5329</t>
-        </is>
+      <c r="D241" s="1">
+        <v>5329</v>
       </c>
     </row>
     <row r="242">
@@ -7840,10 +7585,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>126146</t>
-        </is>
+      <c r="D242" s="1">
+        <v>126146</v>
       </c>
     </row>
     <row r="243">
@@ -7862,10 +7605,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>58000</t>
-        </is>
+      <c r="D243" s="1">
+        <v>58000</v>
       </c>
     </row>
     <row r="244">
@@ -7884,10 +7625,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>61834</t>
-        </is>
+      <c r="D244" s="1">
+        <v>61834</v>
       </c>
     </row>
     <row r="245">
@@ -7906,10 +7645,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>33831</t>
-        </is>
+      <c r="D245" s="1">
+        <v>33831</v>
       </c>
     </row>
     <row r="246">
@@ -7928,10 +7665,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>19201</t>
-        </is>
+      <c r="D246" s="1">
+        <v>19201</v>
       </c>
     </row>
     <row r="247">
@@ -7950,10 +7685,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>3192</t>
-        </is>
+      <c r="D247" s="1">
+        <v>3192</v>
       </c>
     </row>
     <row r="248">
@@ -7972,10 +7705,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>2999</t>
-        </is>
+      <c r="D248" s="1">
+        <v>2999</v>
       </c>
     </row>
     <row r="249">
@@ -7994,10 +7725,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>5497</t>
-        </is>
+      <c r="D249" s="1">
+        <v>5497</v>
       </c>
     </row>
     <row r="250">
@@ -8016,10 +7745,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>129091</t>
-        </is>
+      <c r="D250" s="1">
+        <v>129091</v>
       </c>
     </row>
     <row r="251">
@@ -8038,10 +7765,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
+      <c r="D251" s="1">
+        <v>60000</v>
       </c>
     </row>
     <row r="252">
@@ -8060,10 +7785,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>63552</t>
-        </is>
+      <c r="D252" s="1">
+        <v>63552</v>
       </c>
     </row>
     <row r="253">
@@ -8082,10 +7805,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>34593</t>
-        </is>
+      <c r="D253" s="1">
+        <v>34593</v>
       </c>
     </row>
     <row r="254">
@@ -8104,10 +7825,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>20096</t>
-        </is>
+      <c r="D254" s="1">
+        <v>20096</v>
       </c>
     </row>
     <row r="255">
@@ -8126,10 +7845,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>3295</t>
-        </is>
+      <c r="D255" s="1">
+        <v>3295</v>
       </c>
     </row>
     <row r="256">
@@ -8148,10 +7865,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>3062</t>
-        </is>
+      <c r="D256" s="1">
+        <v>3062</v>
       </c>
     </row>
     <row r="257">
@@ -8170,10 +7885,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>5679</t>
-        </is>
+      <c r="D257" s="1">
+        <v>5679</v>
       </c>
     </row>
     <row r="258">
@@ -8192,10 +7905,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>132997</t>
-        </is>
+      <c r="D258" s="1">
+        <v>132997</v>
       </c>
     </row>
     <row r="259">
@@ -8214,10 +7925,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>62000</t>
-        </is>
+      <c r="D259" s="1">
+        <v>62000</v>
       </c>
     </row>
     <row r="260">
@@ -8236,10 +7945,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>66766</t>
-        </is>
+      <c r="D260" s="1">
+        <v>66766</v>
       </c>
     </row>
     <row r="261">
@@ -8258,10 +7965,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>35286</t>
-        </is>
+      <c r="D261" s="1">
+        <v>35286</v>
       </c>
     </row>
     <row r="262">
@@ -8280,10 +7985,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>20712</t>
-        </is>
+      <c r="D262" s="1">
+        <v>20712</v>
       </c>
     </row>
     <row r="263">
@@ -8302,10 +8005,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>3397</t>
-        </is>
+      <c r="D263" s="1">
+        <v>3397</v>
       </c>
     </row>
     <row r="264">
@@ -8324,10 +8025,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>3174</t>
-        </is>
+      <c r="D264" s="1">
+        <v>3174</v>
       </c>
     </row>
     <row r="265">
@@ -8346,10 +8045,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>5802</t>
-        </is>
+      <c r="D265" s="1">
+        <v>5802</v>
       </c>
     </row>
     <row r="266">
@@ -8368,10 +8065,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>137441</t>
-        </is>
+      <c r="D266" s="1">
+        <v>137441</v>
       </c>
     </row>
     <row r="267">
@@ -8390,10 +8085,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>62000</t>
-        </is>
+      <c r="D267" s="1">
+        <v>62000</v>
       </c>
     </row>
     <row r="268">
@@ -8412,10 +8105,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>69194</t>
-        </is>
+      <c r="D268" s="1">
+        <v>69194</v>
       </c>
     </row>
     <row r="269">
@@ -8434,10 +8125,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>35716</t>
-        </is>
+      <c r="D269" s="1">
+        <v>35716</v>
       </c>
     </row>
     <row r="270">
@@ -8456,10 +8145,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>21144</t>
-        </is>
+      <c r="D270" s="1">
+        <v>21144</v>
       </c>
     </row>
     <row r="271">
@@ -8478,10 +8165,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
+      <c r="D271" s="1">
+        <v>3591</v>
       </c>
     </row>
     <row r="272">
@@ -8500,10 +8185,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>3243</t>
-        </is>
+      <c r="D272" s="1">
+        <v>3243</v>
       </c>
     </row>
     <row r="273">
@@ -8522,10 +8205,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>6017</t>
-        </is>
+      <c r="D273" s="1">
+        <v>6017</v>
       </c>
     </row>
     <row r="274">
@@ -8544,10 +8225,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>138090</t>
-        </is>
+      <c r="D274" s="1">
+        <v>138090</v>
       </c>
     </row>
     <row r="275">
@@ -8566,10 +8245,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>67000</t>
-        </is>
+      <c r="D275" s="1">
+        <v>67000</v>
       </c>
     </row>
     <row r="276">
@@ -8588,10 +8265,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>71499</t>
-        </is>
+      <c r="D276" s="1">
+        <v>71499</v>
       </c>
     </row>
     <row r="277">
@@ -8610,10 +8285,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>36159</t>
-        </is>
+      <c r="D277" s="1">
+        <v>36159</v>
       </c>
     </row>
     <row r="278">
@@ -8632,10 +8305,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>22105</t>
-        </is>
+      <c r="D278" s="1">
+        <v>22105</v>
       </c>
     </row>
     <row r="279">
@@ -8654,10 +8325,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>3591</t>
-        </is>
+      <c r="D279" s="1">
+        <v>3591</v>
       </c>
     </row>
     <row r="280">
@@ -8676,10 +8345,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
+      <c r="D280" s="1">
+        <v>3300</v>
       </c>
     </row>
     <row r="281">
@@ -8698,10 +8365,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>6103</t>
-        </is>
+      <c r="D281" s="1">
+        <v>6103</v>
       </c>
     </row>
     <row r="282">
@@ -8720,10 +8385,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>141777</t>
-        </is>
+      <c r="D282" s="1">
+        <v>141777</v>
       </c>
     </row>
     <row r="283">
@@ -8742,10 +8405,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>67000</t>
-        </is>
+      <c r="D283" s="1">
+        <v>67000</v>
       </c>
     </row>
     <row r="284">
@@ -8764,10 +8425,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>72313</t>
-        </is>
+      <c r="D284" s="1">
+        <v>72313</v>
       </c>
     </row>
     <row r="285">
@@ -8786,10 +8445,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>36449</t>
-        </is>
+      <c r="D285" s="1">
+        <v>36449</v>
       </c>
     </row>
     <row r="286">
@@ -8808,10 +8465,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>23118</t>
-        </is>
+      <c r="D286" s="1">
+        <v>23118</v>
       </c>
     </row>
     <row r="287">
@@ -8830,10 +8485,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>3770</t>
-        </is>
+      <c r="D287" s="1">
+        <v>3770</v>
       </c>
     </row>
     <row r="288">
@@ -8852,10 +8505,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>3355</t>
-        </is>
+      <c r="D288" s="1">
+        <v>3355</v>
       </c>
     </row>
     <row r="289">
@@ -8874,10 +8525,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>6159</t>
-        </is>
+      <c r="D289" s="1">
+        <v>6159</v>
       </c>
     </row>
     <row r="290">
@@ -8896,10 +8545,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>144380</t>
-        </is>
+      <c r="D290" s="1">
+        <v>144380</v>
       </c>
     </row>
     <row r="291">
@@ -8918,10 +8565,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
+      <c r="D291" s="1">
+        <v>70000</v>
       </c>
     </row>
     <row r="292">
@@ -8940,10 +8585,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>73170</t>
-        </is>
+      <c r="D292" s="1">
+        <v>73170</v>
       </c>
     </row>
     <row r="293">
@@ -8962,10 +8605,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>36704</t>
-        </is>
+      <c r="D293" s="1">
+        <v>36704</v>
       </c>
     </row>
     <row r="294">
@@ -8984,10 +8625,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>23935</t>
-        </is>
+      <c r="D294" s="1">
+        <v>23935</v>
       </c>
     </row>
     <row r="295">
@@ -9006,10 +8645,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
+      <c r="D295" s="1">
+        <v>4375</v>
       </c>
     </row>
     <row r="296">
@@ -9028,10 +8665,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>3381</t>
-        </is>
+      <c r="D296" s="1">
+        <v>3381</v>
       </c>
     </row>
     <row r="297">
@@ -9050,10 +8685,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>6191</t>
-        </is>
+      <c r="D297" s="1">
+        <v>6191</v>
       </c>
     </row>
     <row r="298">
@@ -9072,10 +8705,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>145809</t>
-        </is>
+      <c r="D298" s="1">
+        <v>145809</v>
       </c>
     </row>
     <row r="299">
@@ -9094,10 +8725,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>71000</t>
-        </is>
+      <c r="D299" s="1">
+        <v>71000</v>
       </c>
     </row>
     <row r="300">
@@ -9116,10 +8745,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>74013</t>
-        </is>
+      <c r="D300" s="1">
+        <v>74013</v>
       </c>
     </row>
     <row r="301">
@@ -9138,10 +8765,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>37039</t>
-        </is>
+      <c r="D301" s="1">
+        <v>37039</v>
       </c>
     </row>
     <row r="302">
@@ -9160,10 +8785,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>24397</t>
-        </is>
+      <c r="D302" s="1">
+        <v>24397</v>
       </c>
     </row>
     <row r="303">
@@ -9182,10 +8805,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>4502</t>
-        </is>
+      <c r="D303" s="1">
+        <v>4502</v>
       </c>
     </row>
     <row r="304">
@@ -9204,10 +8825,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>3442</t>
-        </is>
+      <c r="D304" s="1">
+        <v>3442</v>
       </c>
     </row>
     <row r="305">
@@ -9226,10 +8845,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>6291</t>
-        </is>
+      <c r="D305" s="1">
+        <v>6291</v>
       </c>
     </row>
     <row r="306">
@@ -9248,10 +8865,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>147114</t>
-        </is>
+      <c r="D306" s="1">
+        <v>147114</v>
       </c>
     </row>
     <row r="307">
@@ -9270,10 +8885,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>72000</t>
-        </is>
+      <c r="D307" s="1">
+        <v>72000</v>
       </c>
     </row>
     <row r="308">
@@ -9292,10 +8905,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>75480</t>
-        </is>
+      <c r="D308" s="1">
+        <v>75480</v>
       </c>
     </row>
     <row r="309">
@@ -9314,10 +8925,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>37545</t>
-        </is>
+      <c r="D309" s="1">
+        <v>37545</v>
       </c>
     </row>
     <row r="310">
@@ -9336,10 +8945,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>24613</t>
-        </is>
+      <c r="D310" s="1">
+        <v>24613</v>
       </c>
     </row>
     <row r="311">
@@ -9358,10 +8965,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
+      <c r="D311" s="1">
+        <v>4646</v>
       </c>
     </row>
     <row r="312">
@@ -9380,10 +8985,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>3489</t>
-        </is>
+      <c r="D312" s="1">
+        <v>3489</v>
       </c>
     </row>
     <row r="313">
@@ -9402,10 +9005,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>6490</t>
-        </is>
+      <c r="D313" s="1">
+        <v>6490</v>
       </c>
     </row>
     <row r="314">
@@ -9424,10 +9025,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>150314</t>
-        </is>
+      <c r="D314" s="1">
+        <v>150314</v>
       </c>
     </row>
     <row r="315">
@@ -9446,10 +9045,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
+      <c r="D315" s="1">
+        <v>73000</v>
       </c>
     </row>
     <row r="316">
@@ -9468,10 +9065,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>77727</t>
-        </is>
+      <c r="D316" s="1">
+        <v>77727</v>
       </c>
     </row>
     <row r="317">
@@ -9490,10 +9085,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>38389</t>
-        </is>
+      <c r="D317" s="1">
+        <v>38389</v>
       </c>
     </row>
     <row r="318">
@@ -9512,10 +9105,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>25623</t>
-        </is>
+      <c r="D318" s="1">
+        <v>25623</v>
       </c>
     </row>
     <row r="319">
@@ -9534,10 +9125,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>4810</t>
-        </is>
+      <c r="D319" s="1">
+        <v>4810</v>
       </c>
     </row>
     <row r="320">
@@ -9556,10 +9145,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>3521</t>
-        </is>
+      <c r="D320" s="1">
+        <v>3521</v>
       </c>
     </row>
     <row r="321">
@@ -9578,10 +9165,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>6619</t>
-        </is>
+      <c r="D321" s="1">
+        <v>6619</v>
       </c>
     </row>
     <row r="322">
@@ -9600,10 +9185,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>155302</t>
-        </is>
+      <c r="D322" s="1">
+        <v>155302</v>
       </c>
     </row>
     <row r="323">
@@ -9622,10 +9205,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
+      <c r="D323" s="1">
+        <v>75000</v>
       </c>
     </row>
     <row r="324">
@@ -9644,10 +9225,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>80227</t>
-        </is>
+      <c r="D324" s="1">
+        <v>80227</v>
       </c>
     </row>
     <row r="325">
@@ -9666,10 +9245,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>39318</t>
-        </is>
+      <c r="D325" s="1">
+        <v>39318</v>
       </c>
     </row>
     <row r="326">
@@ -9688,10 +9265,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>26225</t>
-        </is>
+      <c r="D326" s="1">
+        <v>26225</v>
       </c>
     </row>
     <row r="327">
@@ -9710,10 +9285,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>5098</t>
-        </is>
+      <c r="D327" s="1">
+        <v>5098</v>
       </c>
     </row>
     <row r="328">
@@ -9732,10 +9305,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>3606</t>
-        </is>
+      <c r="D328" s="1">
+        <v>3606</v>
       </c>
     </row>
     <row r="329">
@@ -9754,10 +9325,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>6754</t>
-        </is>
+      <c r="D329" s="1">
+        <v>6754</v>
       </c>
     </row>
     <row r="330">
@@ -9776,10 +9345,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>160454</t>
-        </is>
+      <c r="D330" s="1">
+        <v>160454</v>
       </c>
     </row>
     <row r="331">
@@ -9798,10 +9365,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>79000</t>
-        </is>
+      <c r="D331" s="1">
+        <v>79000</v>
       </c>
     </row>
     <row r="332">
@@ -9820,10 +9385,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>82763</t>
-        </is>
+      <c r="D332" s="1">
+        <v>82763</v>
       </c>
     </row>
     <row r="333">
@@ -9842,10 +9405,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>41261</t>
-        </is>
+      <c r="D333" s="1">
+        <v>41261</v>
       </c>
     </row>
     <row r="334">
@@ -9864,10 +9425,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>27175</t>
-        </is>
+      <c r="D334" s="1">
+        <v>27175</v>
       </c>
     </row>
     <row r="335">
@@ -9886,10 +9445,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>5376</t>
-        </is>
+      <c r="D335" s="1">
+        <v>5376</v>
       </c>
     </row>
     <row r="336">
@@ -9908,10 +9465,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
+      <c r="D336" s="1">
+        <v>3625</v>
       </c>
     </row>
     <row r="337">
@@ -9930,10 +9485,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>6856</t>
-        </is>
+      <c r="D337" s="1">
+        <v>6856</v>
       </c>
     </row>
     <row r="338">
@@ -9952,10 +9505,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>165137</t>
-        </is>
+      <c r="D338" s="1">
+        <v>165137</v>
       </c>
     </row>
     <row r="339">
@@ -9974,10 +9525,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>82000</t>
-        </is>
+      <c r="D339" s="1">
+        <v>82000</v>
       </c>
     </row>
     <row r="340">
@@ -9996,10 +9545,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>84735</t>
-        </is>
+      <c r="D340" s="1">
+        <v>84735</v>
       </c>
     </row>
     <row r="341">
@@ -10018,10 +9565,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>43310</t>
-        </is>
+      <c r="D341" s="1">
+        <v>43310</v>
       </c>
     </row>
     <row r="342">
@@ -10040,10 +9585,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>28888</t>
-        </is>
+      <c r="D342" s="1">
+        <v>28888</v>
       </c>
     </row>
     <row r="343">
@@ -10062,10 +9605,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
+      <c r="D343" s="1">
+        <v>6320</v>
       </c>
     </row>
     <row r="344">
@@ -10084,10 +9625,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>3713</t>
-        </is>
+      <c r="D344" s="1">
+        <v>3713</v>
       </c>
     </row>
     <row r="345">
@@ -10106,10 +9645,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>6893</t>
-        </is>
+      <c r="D345" s="1">
+        <v>6893</v>
       </c>
     </row>
     <row r="346">
@@ -10128,10 +9665,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>168626</t>
-        </is>
+      <c r="D346" s="1">
+        <v>168626</v>
       </c>
     </row>
     <row r="347">
@@ -10150,10 +9685,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>86000</t>
-        </is>
+      <c r="D347" s="1">
+        <v>86000</v>
       </c>
     </row>
     <row r="348">
@@ -10172,10 +9705,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>85870</t>
-        </is>
+      <c r="D348" s="1">
+        <v>85870</v>
       </c>
     </row>
     <row r="349">
@@ -10194,10 +9725,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>44278</t>
-        </is>
+      <c r="D349" s="1">
+        <v>44278</v>
       </c>
     </row>
     <row r="350">
@@ -10216,10 +9745,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>29469</t>
-        </is>
+      <c r="D350" s="1">
+        <v>29469</v>
       </c>
     </row>
     <row r="351">
@@ -10238,10 +9765,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>6697</t>
-        </is>
+      <c r="D351" s="1">
+        <v>6697</v>
       </c>
     </row>
     <row r="352">
@@ -10260,10 +9785,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>3731</t>
-        </is>
+      <c r="D352" s="1">
+        <v>3731</v>
       </c>
     </row>
     <row r="353">
@@ -10282,10 +9805,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>7063</t>
-        </is>
+      <c r="D353" s="1">
+        <v>7063</v>
       </c>
     </row>
     <row r="354">
@@ -10304,10 +9825,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>171128</t>
-        </is>
+      <c r="D354" s="1">
+        <v>171128</v>
       </c>
     </row>
     <row r="355">
@@ -10326,10 +9845,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>88000</t>
-        </is>
+      <c r="D355" s="1">
+        <v>88000</v>
       </c>
     </row>
     <row r="356">
@@ -10348,10 +9865,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>87470</t>
-        </is>
+      <c r="D356" s="1">
+        <v>87470</v>
       </c>
     </row>
     <row r="357">
@@ -10370,10 +9885,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>45495</t>
-        </is>
+      <c r="D357" s="1">
+        <v>45495</v>
       </c>
     </row>
     <row r="358">
@@ -10392,10 +9905,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>30112</t>
-        </is>
+      <c r="D358" s="1">
+        <v>30112</v>
       </c>
     </row>
     <row r="359">
@@ -10414,10 +9925,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>6701</t>
-        </is>
+      <c r="D359" s="1">
+        <v>6701</v>
       </c>
     </row>
     <row r="360">
@@ -10436,10 +9945,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>3810</t>
-        </is>
+      <c r="D360" s="1">
+        <v>3810</v>
       </c>
     </row>
     <row r="361">
@@ -10458,10 +9965,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>7126</t>
-        </is>
+      <c r="D361" s="1">
+        <v>7126</v>
       </c>
     </row>
     <row r="362">
@@ -10480,10 +9985,8 @@
           <t>NSW</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>175419</t>
-        </is>
+      <c r="D362" s="1">
+        <v>175419</v>
       </c>
     </row>
     <row r="363">
@@ -10502,10 +10005,8 @@
           <t>VIC</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
+      <c r="D363" s="1">
+        <v>90000</v>
       </c>
     </row>
     <row r="364">
@@ -10524,10 +10025,8 @@
           <t>QLD</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>90168</t>
-        </is>
+      <c r="D364" s="1">
+        <v>90168</v>
       </c>
     </row>
     <row r="365">
@@ -10546,10 +10045,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>47238</t>
-        </is>
+      <c r="D365" s="1">
+        <v>47238</v>
       </c>
     </row>
     <row r="366">
@@ -10568,10 +10065,8 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>31140</t>
-        </is>
+      <c r="D366" s="1">
+        <v>31140</v>
       </c>
     </row>
     <row r="367">
@@ -10590,10 +10085,8 @@
           <t>TAS</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>7248</t>
-        </is>
+      <c r="D367" s="1">
+        <v>7248</v>
       </c>
     </row>
     <row r="368">
@@ -10612,10 +10105,8 @@
           <t>NT</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
+      <c r="D368" s="1">
+        <v>3972</v>
       </c>
     </row>
     <row r="369">
@@ -10634,10 +10125,8 @@
           <t>ACT</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>7256</t>
-        </is>
+      <c r="D369" s="1">
+        <v>7256</v>
       </c>
     </row>
   </sheetData>

--- a/Alteryx Web.xlsx
+++ b/Alteryx Web.xlsx
@@ -1114,224 +1114,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Totaltests</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>positivetests</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Testsper100000people</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Last_updated</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Confirmed Cases</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Last_update</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NSW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>181064</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2982</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>93000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>92699</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>48727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>32150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1425,7 +1546,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1582,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1618,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1654,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1690,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1726,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1762,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1798,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1834,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1870,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1906,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1942,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1978,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1893,7 +2014,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1929,7 +2050,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -1965,7 +2086,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2122,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2158,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2194,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2230,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2266,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2302,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2338,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2374,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2410,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2446,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2482,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2518,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2554,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2590,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2626,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2662,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2698,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2734,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2770,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2806,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2842,43 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>23 April 2020</t>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
+        </is>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>24 April 2020</t>
         </is>
       </c>
     </row>
@@ -2730,636 +2887,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Overseasacquired</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Locallyacquiredknown</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Locallyacquiredunknown</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Locallyacquiredinterstatetravel</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Underinvestigation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Last_updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>28 March 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>29 March 2020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30 March 2020</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31 March 2020</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01 April 2020</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02 April 2020</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3462</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03 April 2020</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04 April 2020</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3691</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05 April 2020</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06 April 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07 April 2020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08 April 2020</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09 April 2020</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10 April 2020</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11 April 2020</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12 April 2020</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13 April 2020</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14 April 2020</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15 April 2020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16 April 2020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>17 April 2020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18 April 2020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>19 April 2020</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20 April 2020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21 April 2020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22 April 2020</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>23 April 2020</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10068,168 +10637,253 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" t="s">
-        <v>221</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Age Category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Last_updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Teen</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8084</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>07 April 2020 15:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Alteryx Web.xlsx
+++ b/Alteryx Web.xlsx
@@ -1,8 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sambit.Das\OneDrive - The Salvation Army\Documents\COVID-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="11_C6375E109F462ED3184DCC96018D0146581F29FA" revIDLastSave="6" xr10:uidLastSave="{B0621A27-C668-46BC-88CD-9DFFE4E7E292}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView windowHeight="9600" windowWidth="12800" xWindow="240" yWindow="120"/>
+    <workbookView activeTab="3" windowHeight="12576" windowWidth="23256" xWindow="-23148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="TestingandCases" r:id="rId1" sheetId="1"/>
@@ -11,11 +19,827 @@
     <sheet name="Day by Day Tests" r:id="rId4" sheetId="4"/>
     <sheet name="Demographics" r:id="rId5" sheetId="5"/>
   </sheets>
+  <definedNames>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Day by Day Tests'!$A$1:$E$869</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="269">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Totaltests</t>
+  </si>
+  <si>
+    <t>positivetests</t>
+  </si>
+  <si>
+    <t>Testsper100000people</t>
+  </si>
+  <si>
+    <t>Last_updated</t>
+  </si>
+  <si>
+    <t>Confirmed Cases</t>
+  </si>
+  <si>
+    <t>Last_update</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>181064</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>23 April 2020</t>
+  </si>
+  <si>
+    <t>2982</t>
+  </si>
+  <si>
+    <t>24 April 2020</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>93000</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>92699</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>48727</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>32150</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>7607</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>4045</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>7367</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>18 March 2020</t>
+  </si>
+  <si>
+    <t>19 March 2020</t>
+  </si>
+  <si>
+    <t>20 March 2020</t>
+  </si>
+  <si>
+    <t>21 March 2020</t>
+  </si>
+  <si>
+    <t>22 March 2020</t>
+  </si>
+  <si>
+    <t>23 March 2020</t>
+  </si>
+  <si>
+    <t>24 March 2020</t>
+  </si>
+  <si>
+    <t>25 March 2020</t>
+  </si>
+  <si>
+    <t>26 March 2020</t>
+  </si>
+  <si>
+    <t>27 March 2020</t>
+  </si>
+  <si>
+    <t>28 March 2020</t>
+  </si>
+  <si>
+    <t>29 March 2020</t>
+  </si>
+  <si>
+    <t>30 March 2020</t>
+  </si>
+  <si>
+    <t>31 March 2020</t>
+  </si>
+  <si>
+    <t>01 April 2020</t>
+  </si>
+  <si>
+    <t>02 April 2020</t>
+  </si>
+  <si>
+    <t>03 April 2020</t>
+  </si>
+  <si>
+    <t>04 April 2020</t>
+  </si>
+  <si>
+    <t>05 April 2020</t>
+  </si>
+  <si>
+    <t>06 April 2020</t>
+  </si>
+  <si>
+    <t>07 April 2020</t>
+  </si>
+  <si>
+    <t>08 April 2020</t>
+  </si>
+  <si>
+    <t>09 April 2020</t>
+  </si>
+  <si>
+    <t>10 April 2020</t>
+  </si>
+  <si>
+    <t>11 April 2020</t>
+  </si>
+  <si>
+    <t>12 April 2020</t>
+  </si>
+  <si>
+    <t>13 April 2020</t>
+  </si>
+  <si>
+    <t>14 April 2020</t>
+  </si>
+  <si>
+    <t>15 April 2020</t>
+  </si>
+  <si>
+    <t>16 April 2020</t>
+  </si>
+  <si>
+    <t>17 April 2020</t>
+  </si>
+  <si>
+    <t>18 April 2020</t>
+  </si>
+  <si>
+    <t>19 April 2020</t>
+  </si>
+  <si>
+    <t>20 April 2020</t>
+  </si>
+  <si>
+    <t>21 April 2020</t>
+  </si>
+  <si>
+    <t>22 April 2020</t>
+  </si>
+  <si>
+    <t>Overseasacquired</t>
+  </si>
+  <si>
+    <t>Locallyacquiredknown</t>
+  </si>
+  <si>
+    <t>Locallyacquiredunknown</t>
+  </si>
+  <si>
+    <t>Locallyacquiredinterstatetravel</t>
+  </si>
+  <si>
+    <t>Underinvestigation</t>
+  </si>
+  <si>
+    <t>2456</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>2870</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3278</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>3462</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>3691</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>3765</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>3839</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>3880</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3924</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>3968</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>4010</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>4154</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4109</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>4177</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>4189</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>4209</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>4237</t>
+  </si>
+  <si>
+    <t>1658</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4251</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>4254</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4257</t>
+  </si>
+  <si>
+    <t>1692</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>4262</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>01 March 2020</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>02 March 2020</t>
+  </si>
+  <si>
+    <t>03 March 2020</t>
+  </si>
+  <si>
+    <t>04 March 2020</t>
+  </si>
+  <si>
+    <t>05 March 2020</t>
+  </si>
+  <si>
+    <t>06 March 2020</t>
+  </si>
+  <si>
+    <t>07 March 2020</t>
+  </si>
+  <si>
+    <t>08 March 2020</t>
+  </si>
+  <si>
+    <t>09 March 2020</t>
+  </si>
+  <si>
+    <t>10 March 2020</t>
+  </si>
+  <si>
+    <t>11 March 2020</t>
+  </si>
+  <si>
+    <t>12 March 2020</t>
+  </si>
+  <si>
+    <t>13 March 2020</t>
+  </si>
+  <si>
+    <t>14 March 2020</t>
+  </si>
+  <si>
+    <t>15 March 2020</t>
+  </si>
+  <si>
+    <t>16 March 2020</t>
+  </si>
+  <si>
+    <t>17 March 2020</t>
+  </si>
+  <si>
+    <t>Age Category</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>07 April 2020 15:00</t>
+  </si>
+  <si>
+    <t>Teen</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>70s</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>8084</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -52,6 +876,16 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8390,9 +9224,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C298" s="1">
-        <v>0</v>
-      </c>
       <c r="E298" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8470,9 +9301,6 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C302" s="1">
-        <v>0</v>
-      </c>
       <c r="E302" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8510,9 +9338,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C304" s="1">
-        <v>0</v>
-      </c>
       <c r="E304" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8530,9 +9355,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C305" s="1">
-        <v>0</v>
-      </c>
       <c r="E305" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8550,9 +9372,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C306" s="1">
-        <v>0</v>
-      </c>
       <c r="E306" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8570,9 +9389,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C307" s="1">
-        <v>0</v>
-      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8590,9 +9406,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C308" s="1">
-        <v>0</v>
-      </c>
       <c r="E308" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8610,9 +9423,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C309" s="1">
-        <v>0</v>
-      </c>
       <c r="E309" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8690,9 +9500,6 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C313" s="1">
-        <v>0</v>
-      </c>
       <c r="E313" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8730,9 +9537,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C315" s="1">
-        <v>0</v>
-      </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8750,9 +9554,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C316" s="1">
-        <v>0</v>
-      </c>
       <c r="E316" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8770,9 +9571,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C317" s="1">
-        <v>0</v>
-      </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8790,9 +9588,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C318" s="1">
-        <v>0</v>
-      </c>
       <c r="E318" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8810,9 +9605,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C319" s="1">
-        <v>0</v>
-      </c>
       <c r="E319" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8830,9 +9622,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C320" s="1">
-        <v>0</v>
-      </c>
       <c r="E320" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8910,9 +9699,6 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C324" s="1">
-        <v>0</v>
-      </c>
       <c r="E324" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8950,9 +9736,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C326" s="1">
-        <v>0</v>
-      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8970,9 +9753,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C327" s="1">
-        <v>0</v>
-      </c>
       <c r="E327" t="inlineStr">
         <is>
           <t>Global</t>
@@ -8990,9 +9770,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C328" s="1">
-        <v>0</v>
-      </c>
       <c r="E328" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9010,9 +9787,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C329" s="1">
-        <v>0</v>
-      </c>
       <c r="E329" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9030,9 +9804,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C330" s="1">
-        <v>0</v>
-      </c>
       <c r="E330" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9050,9 +9821,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C331" s="1">
-        <v>0</v>
-      </c>
       <c r="E331" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9130,9 +9898,6 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C335" s="1">
-        <v>0</v>
-      </c>
       <c r="E335" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9170,9 +9935,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C337" s="1">
-        <v>0</v>
-      </c>
       <c r="E337" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9190,9 +9952,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C338" s="1">
-        <v>0</v>
-      </c>
       <c r="E338" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9210,9 +9969,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C339" s="1">
-        <v>0</v>
-      </c>
       <c r="E339" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9230,9 +9986,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C340" s="1">
-        <v>0</v>
-      </c>
       <c r="E340" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9250,9 +10003,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C341" s="1">
-        <v>0</v>
-      </c>
       <c r="E341" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9270,9 +10020,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C342" s="1">
-        <v>0</v>
-      </c>
       <c r="E342" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9390,9 +10137,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C348" s="1">
-        <v>0</v>
-      </c>
       <c r="E348" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9410,9 +10154,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C349" s="1">
-        <v>0</v>
-      </c>
       <c r="E349" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9430,9 +10171,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C350" s="1">
-        <v>0</v>
-      </c>
       <c r="E350" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9450,9 +10188,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C351" s="1">
-        <v>0</v>
-      </c>
       <c r="E351" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9470,9 +10205,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C352" s="1">
-        <v>0</v>
-      </c>
       <c r="E352" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9490,9 +10222,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C353" s="1">
-        <v>0</v>
-      </c>
       <c r="E353" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9610,9 +10339,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C359" s="1">
-        <v>0</v>
-      </c>
       <c r="E359" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9630,9 +10356,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C360" s="1">
-        <v>0</v>
-      </c>
       <c r="E360" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9650,9 +10373,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C361" s="1">
-        <v>0</v>
-      </c>
       <c r="E361" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9670,9 +10390,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C362" s="1">
-        <v>0</v>
-      </c>
       <c r="E362" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9690,9 +10407,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C363" s="1">
-        <v>0</v>
-      </c>
       <c r="E363" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9710,9 +10424,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C364" s="1">
-        <v>0</v>
-      </c>
       <c r="E364" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9830,9 +10541,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C370" s="1">
-        <v>0</v>
-      </c>
       <c r="E370" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9850,9 +10558,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C371" s="1">
-        <v>0</v>
-      </c>
       <c r="E371" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9870,9 +10575,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C372" s="1">
-        <v>0</v>
-      </c>
       <c r="E372" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9890,9 +10592,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C373" s="1">
-        <v>0</v>
-      </c>
       <c r="E373" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9910,9 +10609,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C374" s="1">
-        <v>0</v>
-      </c>
       <c r="E374" t="inlineStr">
         <is>
           <t>Global</t>
@@ -9930,9 +10626,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C375" s="1">
-        <v>0</v>
-      </c>
       <c r="E375" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10050,9 +10743,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C381" s="1">
-        <v>0</v>
-      </c>
       <c r="E381" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10070,9 +10760,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C382" s="1">
-        <v>0</v>
-      </c>
       <c r="E382" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10090,9 +10777,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C383" s="1">
-        <v>0</v>
-      </c>
       <c r="E383" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10110,9 +10794,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C384" s="1">
-        <v>0</v>
-      </c>
       <c r="E384" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10150,9 +10831,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C386" s="1">
-        <v>0</v>
-      </c>
       <c r="E386" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10270,9 +10948,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C392" s="1">
-        <v>0</v>
-      </c>
       <c r="E392" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10290,9 +10965,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C393" s="1">
-        <v>0</v>
-      </c>
       <c r="E393" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10310,9 +10982,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C394" s="1">
-        <v>0</v>
-      </c>
       <c r="E394" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10330,9 +10999,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C395" s="1">
-        <v>0</v>
-      </c>
       <c r="E395" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10350,9 +11016,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C396" s="1">
-        <v>0</v>
-      </c>
       <c r="E396" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10370,9 +11033,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C397" s="1">
-        <v>0</v>
-      </c>
       <c r="E397" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10490,9 +11150,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C403" s="1">
-        <v>0</v>
-      </c>
       <c r="E403" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10510,9 +11167,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C404" s="1">
-        <v>0</v>
-      </c>
       <c r="E404" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10530,9 +11184,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C405" s="1">
-        <v>0</v>
-      </c>
       <c r="E405" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10550,9 +11201,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C406" s="1">
-        <v>0</v>
-      </c>
       <c r="E406" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10570,9 +11218,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C407" s="1">
-        <v>0</v>
-      </c>
       <c r="E407" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10590,9 +11235,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C408" s="1">
-        <v>0</v>
-      </c>
       <c r="E408" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10710,9 +11352,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C414" s="1">
-        <v>0</v>
-      </c>
       <c r="E414" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10730,9 +11369,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C415" s="1">
-        <v>0</v>
-      </c>
       <c r="E415" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10750,9 +11386,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C416" s="1">
-        <v>0</v>
-      </c>
       <c r="E416" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10770,9 +11403,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C417" s="1">
-        <v>0</v>
-      </c>
       <c r="E417" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10790,9 +11420,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C418" s="1">
-        <v>0</v>
-      </c>
       <c r="E418" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10810,9 +11437,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C419" s="1">
-        <v>0</v>
-      </c>
       <c r="E419" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10930,9 +11554,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C425" s="1">
-        <v>0</v>
-      </c>
       <c r="E425" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10950,9 +11571,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C426" s="1">
-        <v>0</v>
-      </c>
       <c r="E426" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10970,9 +11588,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C427" s="1">
-        <v>0</v>
-      </c>
       <c r="E427" t="inlineStr">
         <is>
           <t>Global</t>
@@ -10990,9 +11605,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C428" s="1">
-        <v>0</v>
-      </c>
       <c r="E428" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11010,9 +11622,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C429" s="1">
-        <v>0</v>
-      </c>
       <c r="E429" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11030,9 +11639,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C430" s="1">
-        <v>0</v>
-      </c>
       <c r="E430" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11150,9 +11756,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C436" s="1">
-        <v>0</v>
-      </c>
       <c r="E436" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11170,9 +11773,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C437" s="1">
-        <v>0</v>
-      </c>
       <c r="E437" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11190,9 +11790,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C438" s="1">
-        <v>0</v>
-      </c>
       <c r="E438" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11210,9 +11807,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C439" s="1">
-        <v>0</v>
-      </c>
       <c r="E439" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11230,9 +11824,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C440" s="1">
-        <v>0</v>
-      </c>
       <c r="E440" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11250,9 +11841,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C441" s="1">
-        <v>0</v>
-      </c>
       <c r="E441" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11370,9 +11958,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C447" s="1">
-        <v>0</v>
-      </c>
       <c r="E447" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11390,9 +11975,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C448" s="1">
-        <v>0</v>
-      </c>
       <c r="E448" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11410,9 +11992,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C449" s="1">
-        <v>0</v>
-      </c>
       <c r="E449" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11430,9 +12009,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C450" s="1">
-        <v>0</v>
-      </c>
       <c r="E450" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11450,9 +12026,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C451" s="1">
-        <v>0</v>
-      </c>
       <c r="E451" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11470,9 +12043,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C452" s="1">
-        <v>0</v>
-      </c>
       <c r="E452" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11590,9 +12160,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C458" s="1">
-        <v>0</v>
-      </c>
       <c r="E458" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11610,9 +12177,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="C459" s="1">
-        <v>0</v>
-      </c>
       <c r="E459" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11630,9 +12194,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C460" s="1">
-        <v>0</v>
-      </c>
       <c r="E460" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11650,9 +12211,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C461" s="1">
-        <v>0</v>
-      </c>
       <c r="E461" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11690,9 +12248,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C463" s="1">
-        <v>0</v>
-      </c>
       <c r="E463" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11850,9 +12405,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C471" s="1">
-        <v>0</v>
-      </c>
       <c r="E471" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11870,9 +12422,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C472" s="1">
-        <v>0</v>
-      </c>
       <c r="E472" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11890,9 +12439,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C473" s="1">
-        <v>0</v>
-      </c>
       <c r="E473" t="inlineStr">
         <is>
           <t>Global</t>
@@ -11910,9 +12456,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C474" s="1">
-        <v>0</v>
-      </c>
       <c r="E474" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12070,9 +12613,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C482" s="1">
-        <v>0</v>
-      </c>
       <c r="E482" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12090,9 +12630,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C483" s="1">
-        <v>0</v>
-      </c>
       <c r="E483" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12110,9 +12647,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C484" s="1">
-        <v>0</v>
-      </c>
       <c r="E484" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12130,9 +12664,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C485" s="1">
-        <v>0</v>
-      </c>
       <c r="E485" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12250,9 +12781,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C491" s="1">
-        <v>0</v>
-      </c>
       <c r="E491" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12290,9 +12818,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C493" s="1">
-        <v>0</v>
-      </c>
       <c r="E493" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12330,9 +12855,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C495" s="1">
-        <v>0</v>
-      </c>
       <c r="E495" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12350,9 +12872,6 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="C496" s="1">
-        <v>0</v>
-      </c>
       <c r="E496" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12470,9 +12989,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C502" s="1">
-        <v>0</v>
-      </c>
       <c r="E502" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12510,9 +13026,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C504" s="1">
-        <v>0</v>
-      </c>
       <c r="E504" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12550,9 +13063,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C506" s="1">
-        <v>0</v>
-      </c>
       <c r="E506" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12690,9 +13200,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C513" s="1">
-        <v>0</v>
-      </c>
       <c r="E513" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12730,9 +13237,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C515" s="1">
-        <v>0</v>
-      </c>
       <c r="E515" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12770,9 +13274,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C517" s="1">
-        <v>0</v>
-      </c>
       <c r="E517" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12910,9 +13411,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C524" s="1">
-        <v>0</v>
-      </c>
       <c r="E524" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12950,9 +13448,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C526" s="1">
-        <v>0</v>
-      </c>
       <c r="E526" t="inlineStr">
         <is>
           <t>Global</t>
@@ -12990,9 +13485,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C528" s="1">
-        <v>0</v>
-      </c>
       <c r="E528" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13170,9 +13662,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C537" s="1">
-        <v>0</v>
-      </c>
       <c r="E537" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13390,9 +13879,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C548" s="1">
-        <v>0</v>
-      </c>
       <c r="E548" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13430,9 +13916,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C550" s="1">
-        <v>0</v>
-      </c>
       <c r="E550" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13610,9 +14093,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C559" s="1">
-        <v>0</v>
-      </c>
       <c r="E559" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13650,9 +14130,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C561" s="1">
-        <v>0</v>
-      </c>
       <c r="E561" t="inlineStr">
         <is>
           <t>Global</t>
@@ -13870,9 +14347,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C572" s="1">
-        <v>0</v>
-      </c>
       <c r="E572" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14090,9 +14564,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C583" s="1">
-        <v>0</v>
-      </c>
       <c r="E583" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14230,9 +14701,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C590" s="1">
-        <v>0</v>
-      </c>
       <c r="E590" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14310,9 +14778,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C594" s="1">
-        <v>0</v>
-      </c>
       <c r="E594" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14450,9 +14915,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C601" s="1">
-        <v>0</v>
-      </c>
       <c r="E601" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14530,9 +14992,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C605" s="1">
-        <v>0</v>
-      </c>
       <c r="E605" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14670,9 +15129,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C612" s="1">
-        <v>0</v>
-      </c>
       <c r="E612" t="inlineStr">
         <is>
           <t>Global</t>
@@ -14970,9 +15426,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C627" s="1">
-        <v>0</v>
-      </c>
       <c r="E627" t="inlineStr">
         <is>
           <t>Global</t>
@@ -15190,9 +15643,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C638" s="1">
-        <v>0</v>
-      </c>
       <c r="E638" t="inlineStr">
         <is>
           <t>Global</t>
@@ -15410,9 +15860,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C649" s="1">
-        <v>0</v>
-      </c>
       <c r="E649" t="inlineStr">
         <is>
           <t>Global</t>
@@ -15630,9 +16077,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C660" s="1">
-        <v>0</v>
-      </c>
       <c r="E660" t="inlineStr">
         <is>
           <t>Global</t>
@@ -15850,9 +16294,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C671" s="1">
-        <v>0</v>
-      </c>
       <c r="E671" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16030,9 +16471,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C680" s="1">
-        <v>0</v>
-      </c>
       <c r="E680" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16070,9 +16508,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C682" s="1">
-        <v>0</v>
-      </c>
       <c r="E682" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16270,9 +16705,6 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C692" s="1">
-        <v>0</v>
-      </c>
       <c r="E692" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16510,9 +16942,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C704" s="1">
-        <v>0</v>
-      </c>
       <c r="E704" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16690,9 +17119,6 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C713" s="1">
-        <v>0</v>
-      </c>
       <c r="E713" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16730,9 +17156,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C715" s="1">
-        <v>0</v>
-      </c>
       <c r="E715" t="inlineStr">
         <is>
           <t>Global</t>
@@ -16950,9 +17373,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C726" s="1">
-        <v>0</v>
-      </c>
       <c r="E726" t="inlineStr">
         <is>
           <t>Global</t>
@@ -17170,9 +17590,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C737" s="1">
-        <v>0</v>
-      </c>
       <c r="E737" t="inlineStr">
         <is>
           <t>Global</t>
@@ -17390,9 +17807,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C748" s="1">
-        <v>0</v>
-      </c>
       <c r="E748" t="inlineStr">
         <is>
           <t>Global</t>
@@ -17610,9 +18024,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C759" s="1">
-        <v>0</v>
-      </c>
       <c r="E759" t="inlineStr">
         <is>
           <t>Global</t>
@@ -18050,9 +18461,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C781" s="1">
-        <v>0</v>
-      </c>
       <c r="E781" t="inlineStr">
         <is>
           <t>Global</t>
@@ -18270,9 +18678,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C792" s="1">
-        <v>0</v>
-      </c>
       <c r="E792" t="inlineStr">
         <is>
           <t>Global</t>
@@ -18490,9 +18895,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C803" s="1">
-        <v>0</v>
-      </c>
       <c r="E803" t="inlineStr">
         <is>
           <t>Global</t>
@@ -18710,9 +19112,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C814" s="1">
-        <v>0</v>
-      </c>
       <c r="E814" t="inlineStr">
         <is>
           <t>Global</t>
@@ -18930,9 +19329,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C825" s="1">
-        <v>0</v>
-      </c>
       <c r="E825" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19150,9 +19546,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C836" s="1">
-        <v>0</v>
-      </c>
       <c r="E836" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19210,9 +19603,6 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C839" s="1">
-        <v>0</v>
-      </c>
       <c r="E839" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19230,9 +19620,6 @@
           <t>UK</t>
         </is>
       </c>
-      <c r="C840" s="1">
-        <v>0</v>
-      </c>
       <c r="E840" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19370,9 +19757,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C847" s="1">
-        <v>0</v>
-      </c>
       <c r="E847" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19430,9 +19814,6 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C850" s="1">
-        <v>0</v>
-      </c>
       <c r="E850" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19590,9 +19971,6 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C858" s="1">
-        <v>0</v>
-      </c>
       <c r="E858" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19650,9 +20028,6 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C861" s="1">
-        <v>0</v>
-      </c>
       <c r="E861" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19690,9 +20065,6 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C863" s="1">
-        <v>0</v>
-      </c>
       <c r="E863" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19730,9 +20102,6 @@
           <t>NewZealand</t>
         </is>
       </c>
-      <c r="C865" s="1">
-        <v>0</v>
-      </c>
       <c r="E865" t="inlineStr">
         <is>
           <t>Global</t>
@@ -19809,9 +20178,6 @@
         <is>
           <t>Germany</t>
         </is>
-      </c>
-      <c r="C869" s="1">
-        <v>0</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
